--- a/data/training_level_data.xlsx
+++ b/data/training_level_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonardol\Desktop\FB competitive\Player\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lonardol\Documents\GitHub\competitive_fb_task\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -760,8 +760,8 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:C9"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
